--- a/controladorProcesos/src/main/resources/archivos/procesos.xlsx
+++ b/controladorProcesos/src/main/resources/archivos/procesos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Documents\GitHub\estructuraDeDatos_GomezBryan\controladorProcesos\src\main\resources\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA234C0B-ED02-4157-9F8F-73BF20F47948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839725A8-6837-4A78-94E6-A9B4AEB00B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
